--- a/biology/Botanique/Beurré_d'Anjou/Beurré_d'Anjou.xlsx
+++ b/biology/Botanique/Beurré_d'Anjou/Beurré_d'Anjou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré d'Anjou, ou dite plus simplement la poire d'Anjou, est une poire de table cultivée en France. Elle fait partie de la variété des « beurrés ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,13 +551,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Beurré Gris[1], voir ce nom.
-Beurré Aurore[1].
-Beurré Capiaumont[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Beurré Gris, voir ce nom.
+Beurré Aurore.
+Beurré Capiaumont.
 Beurré Rouge.
-Beurré Rousse[2],[3].
+Beurré Rousse,.
 Eisenbart (en Allemagne).
 Isambart.
 Beurrée d'Ambleuse.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chair fondante, très juteuse et onctueuse.
 Le code PLU du fruit est 4025.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Maturation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En hiver.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Anjou</t>
+          <t>Beurré_d'Anjou</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
